--- a/backend/data/더쿠.xlsx
+++ b/backend/data/더쿠.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,25 +466,24 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[에픽세븐] 권은비 &amp; 로켓펀치(쥬리)의 OST 비하인드! (I'll be your Energy)
-1</t>
+          <t>집에서 크리스마스 화보찍은 에일리.jpg</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2021.12.28 15:44</t>
+          <t>2021.12.29 16:38</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>122</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>2090935</v>
+        <v>2092057</v>
       </c>
     </row>
     <row r="3">
@@ -493,25 +492,25 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>생각해보면 은근 돈이 없는 것 같은 닥터 스트레인지
- 14</t>
+          <t>졸업식에서 엄마도 도저히 참지 못한 것.jpg
+ 3</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2021.12.28 15:42</t>
+          <t>2021.12.29 16:38</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>743</t>
+          <t>279</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="F3" t="n">
-        <v>2090934</v>
+        <v>2092056</v>
       </c>
     </row>
     <row r="4">
@@ -520,25 +519,24 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>'올림픽 높이뛰기 한국신기록' 우상혁, 세계랭킹 기록 공동 6위 우뚝섰다
-1</t>
+          <t>찐 여행 브이로그 바이브인 남돌 컴백 티저</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2021.12.28 15:41</t>
+          <t>2021.12.29 16:37</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>138</t>
+          <t>155</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>2090933</v>
+        <v>2092055</v>
       </c>
     </row>
     <row r="5">
@@ -547,25 +545,25 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>자꾸 뒤늦게 자각하는 아이돌 자아
- 23</t>
+          <t>‘개 식용’ 세계 2위 베트남…주인 눈앞에서 전기충격기로 개 훔친 10대들
+ 1</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2021.12.28 15:40</t>
+          <t>2021.12.29 16:37</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1416</t>
+          <t>115</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>2090932</v>
+        <v>2092054</v>
       </c>
     </row>
     <row r="6">
@@ -574,25 +572,25 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>중년 이후의 뷰티 관리 방법 (긴글 주의)
-18</t>
+          <t>KIA 이우성, 1월 16일 결혼 "야구인생에도 변화 생기길"
+ 1</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2021.12.28 15:38</t>
+          <t>2021.12.29 16:36</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1112</t>
+          <t>106</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>2090931</v>
+        <v>2092053</v>
       </c>
     </row>
     <row r="7">
@@ -601,25 +599,25 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>의외로 이목구비도 동글동글하고 말랑하게 생긴 아이돌
- 5</t>
+          <t>2022년 1분기 드라마 예정작들.jpg
+ 4</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2021.12.28 15:37</t>
+          <t>2021.12.29 16:35</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>829</t>
+          <t>316</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F7" t="n">
-        <v>2090930</v>
+        <v>2092052</v>
       </c>
     </row>
     <row r="8">
@@ -628,25 +626,25 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>컴백보다 감자가 중요한 펜타곤 멤버.jpg
- 3</t>
+          <t>면접 볼 때 손 안 보지? 제발.JPG
+ 9</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2021.12.28 15:37</t>
+          <t>2021.12.29 16:35</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>392</t>
+          <t>1072</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F8" t="n">
-        <v>2090929</v>
+        <v>2092051</v>
       </c>
     </row>
     <row r="9">
@@ -655,25 +653,24 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>적으로 돌리면 안되는 인간 1순위는.twt
- 5</t>
+          <t>당신이 봄인가보오</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2021.12.28 15:37</t>
+          <t>2021.12.29 16:34</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>870</t>
+          <t>128</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>2090928</v>
+        <v>2092050</v>
       </c>
     </row>
     <row r="10">
@@ -682,25 +679,25 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>그때 그시절 원덕이가 좋아했던 프듀 48 직캠
-1</t>
+          <t>마늘의 민족 한국인
+ 2</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2021.12.28 15:35</t>
+          <t>2021.12.29 16:34</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>311</t>
+          <t>501</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10" t="n">
-        <v>2090927</v>
+        <v>2092049</v>
       </c>
     </row>
     <row r="11">
@@ -709,25 +706,25 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>&lt;그것이 알고 싶다&gt;에서는 일어나지 않은 일에 대한 기억(오기억)으로 인해 가족이나 지인으로부터 범죄 가해자로 지목 당한 경험이 있는 분들의 연락을 기다립니다.
- 3</t>
+          <t>우울증 걸리는 게 이해되는 스웨덴의 사계절.JPG (하루 종일 낮 vs 하루 종일 밤)
+ 15</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2021.12.28 15:35</t>
+          <t>2021.12.29 16:30</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>471</t>
+          <t>1712</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="F11" t="n">
-        <v>2090926</v>
+        <v>2092048</v>
       </c>
     </row>
     <row r="12">
@@ -736,25 +733,25 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>옆집에서 부부싸움을 하기 시작했다.gif
- 7</t>
+          <t>[박병호 인터뷰]"마음이 뒤숭숭했다" 키움→kt 박병호는 고민을 거듭했다
+5</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2021.12.28 15:34</t>
+          <t>2021.12.29 16:29</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1371</t>
+          <t>209</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F12" t="n">
-        <v>2090925</v>
+        <v>2092047</v>
       </c>
     </row>
     <row r="13">
@@ -763,25 +760,25 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>[할리우드IS] '달라스 바이어스 클럽' 장 마크 발레 감독, 숨진 채 발견
-14</t>
+          <t>두 달 된 신생아 떨어뜨려 숨지게 한 산후도우미 징역 3년
+ 40</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2021.12.28 15:31</t>
+          <t>2021.12.29 16:26</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1615</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="F13" t="n">
-        <v>2090924</v>
+        <v>2092046</v>
       </c>
     </row>
     <row r="14">
@@ -790,25 +787,25 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>요기요 근황
- 20</t>
+          <t>피 철철 흘리는 골댕이
+ 5</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2021.12.28 15:30</t>
+          <t>2021.12.29 16:25</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2364</t>
+          <t>1148</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F14" t="n">
-        <v>2090923</v>
+        <v>2092045</v>
       </c>
     </row>
     <row r="15">
@@ -817,25 +814,25 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>헤어스타일 스펙트럼 또 넓힌 남돌
- 2</t>
+          <t>뷰티유튜버 회사원A가 2주 동안 유럽 가서 찍어온 컨텐츠 양
+ 48</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2021.12.28 15:30</t>
+          <t>2021.12.29 16:23</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1135</t>
+          <t>4717</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>2</v>
+        <v>48</v>
       </c>
       <c r="F15" t="n">
-        <v>2090922</v>
+        <v>2092044</v>
       </c>
     </row>
     <row r="16">
@@ -844,25 +841,25 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>퇴근해서 신난 버스기사님.jpg
- 16</t>
+          <t>의외인 주식 종목 이름
+ 15</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2021.12.28 15:29</t>
+          <t>2021.12.29 16:22</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2276</t>
+          <t>1543</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F16" t="n">
-        <v>2090921</v>
+        <v>2092043</v>
       </c>
     </row>
     <row r="17">
@@ -871,25 +868,25 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>사운드트랙#1 박형식 한소희 첫 투샷.jpg
- 12</t>
+          <t>네이버페이 5000원
+ 197</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2021.12.28 15:28</t>
+          <t>2021.12.29 16:20</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1267</t>
+          <t>6312</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>12</v>
+        <v>197</v>
       </c>
       <c r="F17" t="n">
-        <v>2090920</v>
+        <v>2092042</v>
       </c>
     </row>
     <row r="18">
@@ -898,25 +895,25 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2021 올해 미니시리즈 드라마 평균 시청률 1,2,3위 기록한 펜트하우스.jpg
- 24</t>
+          <t>'유퀴즈' 본방 2주간 못 본다 "오늘(29일) 특별판 편성"(공식)
+ 3</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2021.12.28 15:27</t>
+          <t>2021.12.29 16:20</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>575</t>
+          <t>503</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="F18" t="n">
-        <v>2090919</v>
+        <v>2092041</v>
       </c>
     </row>
     <row r="19">
@@ -925,25 +922,25 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>배우 박병은, 국립암센터에 5000만원 기부..따뜻한 '세밑 선행'
- 10</t>
+          <t>강동원 어릴때 방충망 부신 썰.jpg
+ 17</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2021.12.28 15:25</t>
+          <t>2021.12.29 16:19</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>547</t>
+          <t>2071</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F19" t="n">
-        <v>2090918</v>
+        <v>2092040</v>
       </c>
     </row>
     <row r="20">
@@ -952,25 +949,25 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>국민거포 KT행 임박? 이정후, 의미심장한 SNS '박병호와 추억'
- 6</t>
+          <t>대한민국의 국토&amp;인구 타 국가와 비교.JPG
+ 29</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2021.12.28 15:25</t>
+          <t>2021.12.29 16:19</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>990</t>
+          <t>1052</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="F20" t="n">
-        <v>2090917</v>
+        <v>2092039</v>
       </c>
     </row>
     <row r="21">
@@ -979,25 +976,25 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>[단독]인피니트 출신 이호원, FA 됐다…글로리어스와 계약 종료
-8</t>
+          <t>'옷소매' 7주 연속 화제성 1위…'설강화' 논란으로 2위
+5</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2021.12.28 15:23</t>
+          <t>2021.12.29 16:19</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1630</t>
+          <t>344</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F21" t="n">
-        <v>2090916</v>
+        <v>2092038</v>
       </c>
     </row>
     <row r="22">
@@ -1006,25 +1003,25 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>서예지, 복귀작 '이브' 확정..1% 상류층 부부의 이혼 내막
- 24</t>
+          <t>'대한외국인' 원슈타인 "MSG워너비 중 가장 고마운 멤버 김정민X지석진" [TV스포]
+ 2</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2021.12.28 15:22</t>
+          <t>2021.12.29 16:18</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>1624</t>
+          <t>420</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="F22" t="n">
-        <v>2090915</v>
+        <v>2092037</v>
       </c>
     </row>
     <row r="23">
@@ -1033,25 +1030,25 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>눈오는 날 골댕이의 산책
-17</t>
+          <t>아이들 민니 뿌까머리 인스타 업뎃.JPG
+ 4</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2021.12.28 15:21</t>
+          <t>2021.12.29 16:16</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>1007</t>
+          <t>715</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="F23" t="n">
-        <v>2090914</v>
+        <v>2092036</v>
       </c>
     </row>
     <row r="24">
@@ -1060,25 +1057,25 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>내가 직접 찾은 ppl아닌 연예인 찐템들
- 486</t>
+          <t>아이브, 아날로그 추억 소환…‘다시 만난 세계’→‘Hug’까지 명품 커버 비하인드
+7</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>2021.12.28 15:20</t>
+          <t>2021.12.29 16:16</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>1.4만</t>
+          <t>381</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>486</v>
+        <v>7</v>
       </c>
       <c r="F24" t="n">
-        <v>2090913</v>
+        <v>2092035</v>
       </c>
     </row>
     <row r="25">
@@ -1087,25 +1084,25 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>SBS, 2년 연속 드라마 평균 시청률 1위..JTBC가 꼴찌
- 7</t>
+          <t>"저는 좌심방과 좌심실이 없는 채 태어나 자다가 죽을 수도 있다는 진단을 세상과 처음 만나자마자 받았었고, 지금은 서른하나를 목전에 두고 있습니다."
+ 31</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>2021.12.28 15:18</t>
+          <t>2021.12.29 16:16</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>460</t>
+          <t>3823</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="F25" t="n">
-        <v>2090912</v>
+        <v>2092034</v>
       </c>
     </row>
     <row r="26">
@@ -1114,25 +1111,25 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>서로 옷 바꿔입기한 프리지아X권은비
- 22</t>
+          <t>종영 '백종원의 골목식당' 논란에도 의미있던 4년 행보[TV보고서]
+6</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>2021.12.28 15:18</t>
+          <t>2021.12.29 16:15</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>3614</t>
+          <t>595</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="F26" t="n">
-        <v>2090911</v>
+        <v>2092033</v>
       </c>
     </row>
     <row r="27">
@@ -1141,25 +1138,25 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>‘학폭 논란’ 김동희 측 “수사 결과 무혐의, 장애인 괴롭힌 사실 無”[공식입장]
-208</t>
+          <t>호남권에서 장사 접는다는 시계브랜드
+ 14</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>2021.12.28 15:17</t>
+          <t>2021.12.29 16:15</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>7581</t>
+          <t>3350</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>208</v>
+        <v>14</v>
       </c>
       <c r="F27" t="n">
-        <v>2090910</v>
+        <v>2092032</v>
       </c>
     </row>
     <row r="28">
@@ -1168,25 +1165,25 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2000-2021년까지 일본에서 매출 Top10에 들었던 여가수들 (아무로, 아유, 보아 등등)
- 8</t>
+          <t>요즘 투디 아이돌 게임 뮤비(찐 2D)
+ 11</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>2021.12.28 15:17</t>
+          <t>2021.12.29 16:15</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>434</t>
+          <t>530</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F28" t="n">
-        <v>2090909</v>
+        <v>2092031</v>
       </c>
     </row>
     <row r="29">
@@ -1195,25 +1192,214 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>할리우드에서 비슷한 느낌이라는 세 커플
- 9</t>
+          <t>아이한테 약 먹이는 법
+ 4</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>2021.12.28 15:16</t>
+          <t>2021.12.29 16:15</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>1818</t>
+          <t>1032</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F29" t="n">
-        <v>2090908</v>
+        <v>2092030</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>까꿍하는 인형을 본 아기 강아지들의 반응ㅋㅋㅋㅋㅋ
+ 12</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>2021.12.29 16:15</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2124</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>12</v>
+      </c>
+      <c r="F30" t="n">
+        <v>2092029</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>올해 Z세대에게 가장 사랑받은 가수는? 멜론 데이터 독점 분석
+21</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>2021.12.29 16:14</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>898</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>21</v>
+      </c>
+      <c r="F31" t="n">
+        <v>2092028</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>일본가면 한국보다 확실히 나은 것.jpg
+ 40</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>2021.12.29 16:14</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2794</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>40</v>
+      </c>
+      <c r="F32" t="n">
+        <v>2092027</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>10대에 공무원이 된 그들…'지역인재 9급' 최대규모로 뽑았다
+17</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>2021.12.29 16:12</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1061</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>17</v>
+      </c>
+      <c r="F33" t="n">
+        <v>2092026</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>운전할 때 의외로 조수석에 자주 두는 것
+ 8</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>2021.12.29 16:12</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1868</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>8</v>
+      </c>
+      <c r="F34" t="n">
+        <v>2092025</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>360도 변한 k-주먹짤 ㄷㄷ
+4</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>2021.12.29 16:11</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1031</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>4</v>
+      </c>
+      <c r="F35" t="n">
+        <v>2092024</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>역대 멜론에서 좋아요 수 10만개 이상곡들 총 모음(12월29일 기준)
+19</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>2021.12.29 16:10</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>854</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>19</v>
+      </c>
+      <c r="F36" t="n">
+        <v>2092023</v>
       </c>
     </row>
   </sheetData>

--- a/backend/data/더쿠.xlsx
+++ b/backend/data/더쿠.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,24 +466,24 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>집에서 크리스마스 화보찍은 에일리.jpg</t>
+          <t>[인터뷰]"어머니 덕분에" 치킨집 사장님이 나눔 실천한 이유</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2021.12.29 16:38</t>
+          <t>2021.12.29 18:34</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>122</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>2092057</v>
+        <v>2092180</v>
       </c>
     </row>
     <row r="3">
@@ -492,25 +492,24 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>졸업식에서 엄마도 도저히 참지 못한 것.jpg
- 3</t>
+          <t>의외로 동인행사에서 하면 안되는 것들</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2021.12.29 16:38</t>
+          <t>2021.12.29 18:34</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>279</t>
+          <t>74</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>2092056</v>
+        <v>2092179</v>
       </c>
     </row>
     <row r="4">
@@ -519,24 +518,25 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>찐 여행 브이로그 바이브인 남돌 컴백 티저</t>
+          <t>최서원 "태블릿PC 돌려달라"…檢 "본인 소유 아니라며"
+ 1</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2021.12.29 16:37</t>
+          <t>2021.12.29 18:33</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>155</t>
+          <t>126</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>2092055</v>
+        <v>2092178</v>
       </c>
     </row>
     <row r="5">
@@ -545,25 +545,25 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>‘개 식용’ 세계 2위 베트남…주인 눈앞에서 전기충격기로 개 훔친 10대들
- 1</t>
+          <t>유니클로 최근 5년 실적 추이.jpg
+ 13</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2021.12.29 16:37</t>
+          <t>2021.12.29 18:32</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>115</t>
+          <t>519</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="F5" t="n">
-        <v>2092054</v>
+        <v>2092177</v>
       </c>
     </row>
     <row r="6">
@@ -572,25 +572,25 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>KIA 이우성, 1월 16일 결혼 "야구인생에도 변화 생기길"
- 1</t>
+          <t>세인트 홀리 패드립
+ 9</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2021.12.29 16:36</t>
+          <t>2021.12.29 18:29</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>589</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F6" t="n">
-        <v>2092053</v>
+        <v>2092176</v>
       </c>
     </row>
     <row r="7">
@@ -599,25 +599,25 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2022년 1분기 드라마 예정작들.jpg
- 4</t>
+          <t>옛날 광공 vs 요즘 광공.jpg
+ 21</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2021.12.29 16:35</t>
+          <t>2021.12.29 18:28</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>316</t>
+          <t>983</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="F7" t="n">
-        <v>2092052</v>
+        <v>2092175</v>
       </c>
     </row>
     <row r="8">
@@ -626,25 +626,25 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>면접 볼 때 손 안 보지? 제발.JPG
- 9</t>
+          <t>비아이, 1월 4일 美 '그래미 글로벌스핀' 출격…아시아 최초 [공식입장]
+ 6</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2021.12.29 16:35</t>
+          <t>2021.12.29 18:25</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1072</t>
+          <t>693</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F8" t="n">
-        <v>2092051</v>
+        <v>2092174</v>
       </c>
     </row>
     <row r="9">
@@ -653,24 +653,25 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>당신이 봄인가보오</t>
+          <t>입대 3분전 한 아이돌의 진심.twt
+ 52</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2021.12.29 16:34</t>
+          <t>2021.12.29 18:25</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>128</t>
+          <t>2085</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="F9" t="n">
-        <v>2092050</v>
+        <v>2092173</v>
       </c>
     </row>
     <row r="10">
@@ -679,25 +680,24 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>마늘의 민족 한국인
- 2</t>
+          <t>OMEGA X(오메가엑스) 2nd Mini Album [LOVE ME LIKE] VIDEO TEASER LIKE ver. #2</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2021.12.29 16:34</t>
+          <t>2021.12.29 18:25</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>501</t>
+          <t>60</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>2092049</v>
+        <v>2092172</v>
       </c>
     </row>
     <row r="11">
@@ -706,25 +706,25 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>우울증 걸리는 게 이해되는 스웨덴의 사계절.JPG (하루 종일 낮 vs 하루 종일 밤)
- 15</t>
+          <t>엔시티 막냉이들 꿈빛 파티시엘 챌린지.twt
+1</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2021.12.29 16:30</t>
+          <t>2021.12.29 18:24</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1712</t>
+          <t>271</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>2092048</v>
+        <v>2092171</v>
       </c>
     </row>
     <row r="12">
@@ -733,25 +733,25 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>[박병호 인터뷰]"마음이 뒤숭숭했다" 키움→kt 박병호는 고민을 거듭했다
-5</t>
+          <t>처음으로 눈을 본 고양이❄️❄️
+ 11</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2021.12.29 16:29</t>
+          <t>2021.12.29 18:22</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>1001</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F12" t="n">
-        <v>2092047</v>
+        <v>2092170</v>
       </c>
     </row>
     <row r="13">
@@ -760,25 +760,25 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>두 달 된 신생아 떨어뜨려 숨지게 한 산후도우미 징역 3년
- 40</t>
+          <t>딸을 블랙홀로 보낸 교수님
+ 13</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2021.12.29 16:26</t>
+          <t>2021.12.29 18:21</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>1051</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="F13" t="n">
-        <v>2092046</v>
+        <v>2092169</v>
       </c>
     </row>
     <row r="14">
@@ -787,25 +787,25 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>피 철철 흘리는 골댕이
- 5</t>
+          <t>🥰😍다양한 메이크업한 이쁜 언니들💄👄 (💯장 주의)
+ 30</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2021.12.29 16:25</t>
+          <t>2021.12.29 18:21</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>1148</t>
+          <t>1061</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="F14" t="n">
-        <v>2092045</v>
+        <v>2092168</v>
       </c>
     </row>
     <row r="15">
@@ -814,25 +814,25 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>뷰티유튜버 회사원A가 2주 동안 유럽 가서 찍어온 컨텐츠 양
- 48</t>
+          <t>SMTOWN 인스타그램 릴스 태연 &amp; 키
+19</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2021.12.29 16:23</t>
+          <t>2021.12.29 18:20</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>4717</t>
+          <t>742</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="F15" t="n">
-        <v>2092044</v>
+        <v>2092167</v>
       </c>
     </row>
     <row r="16">
@@ -841,25 +841,25 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>의외인 주식 종목 이름
- 15</t>
+          <t>썸네일을 골라주세여!🐧
+ 44</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2021.12.29 16:22</t>
+          <t>2021.12.29 18:17</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1543</t>
+          <t>738</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="F16" t="n">
-        <v>2092043</v>
+        <v>2092166</v>
       </c>
     </row>
     <row r="17">
@@ -868,25 +868,25 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>네이버페이 5000원
- 197</t>
+          <t>[악작극지문1] 대만드라마의 고전명작 &amp; 입문작! ＜악작극지문1 = 장난스런키스 시즌1＞ -7화- 1
+ 2</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2021.12.29 16:20</t>
+          <t>2021.12.29 18:17</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>6312</t>
+          <t>102</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>197</v>
+        <v>2</v>
       </c>
       <c r="F17" t="n">
-        <v>2092042</v>
+        <v>2092165</v>
       </c>
     </row>
     <row r="18">
@@ -895,25 +895,25 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>'유퀴즈' 본방 2주간 못 본다 "오늘(29일) 특별판 편성"(공식)
- 3</t>
+          <t>원덬 맘을 흔드는 트와이스 미나 최근 미모
+ 11</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2021.12.29 16:20</t>
+          <t>2021.12.29 18:15</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>503</t>
+          <t>974</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="F18" t="n">
-        <v>2092041</v>
+        <v>2092164</v>
       </c>
     </row>
     <row r="19">
@@ -922,25 +922,25 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>강동원 어릴때 방충망 부신 썰.jpg
- 17</t>
+          <t>힙합 아티스트 그냥노창(전 천재노창) 근황
+2</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2021.12.29 16:19</t>
+          <t>2021.12.29 18:14</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2071</t>
+          <t>936</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="F19" t="n">
-        <v>2092040</v>
+        <v>2092163</v>
       </c>
     </row>
     <row r="20">
@@ -949,25 +949,25 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>대한민국의 국토&amp;인구 타 국가와 비교.JPG
- 29</t>
+          <t>어그로 만렙 찍은 문과의 드립.jpg
+ 6</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2021.12.29 16:19</t>
+          <t>2021.12.29 18:10</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1052</t>
+          <t>1240</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="F20" t="n">
-        <v>2092039</v>
+        <v>2092162</v>
       </c>
     </row>
     <row r="21">
@@ -976,25 +976,25 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>'옷소매' 7주 연속 화제성 1위…'설강화' 논란으로 2위
-5</t>
+          <t>[싱어게인2] 슈가맨조 미공개 방영분 (1차 탈락자)
+7</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2021.12.29 16:19</t>
+          <t>2021.12.29 18:10</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>344</t>
+          <t>1393</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F21" t="n">
-        <v>2092038</v>
+        <v>2092161</v>
       </c>
     </row>
     <row r="22">
@@ -1003,25 +1003,25 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>'대한외국인' 원슈타인 "MSG워너비 중 가장 고마운 멤버 김정민X지석진" [TV스포]
- 2</t>
+          <t>[싱어게인2] 슈가맨조 미공개 방영분 (1차 탈락자)
+7</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2021.12.29 16:18</t>
+          <t>2021.12.29 18:10</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>420</t>
+          <t>1394</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F22" t="n">
-        <v>2092037</v>
+        <v>2092160</v>
       </c>
     </row>
     <row r="23">
@@ -1030,25 +1030,25 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>아이들 민니 뿌까머리 인스타 업뎃.JPG
- 4</t>
+          <t>새끼원앙들의 첫 비행
+10</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2021.12.29 16:16</t>
+          <t>2021.12.29 18:10</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>715</t>
+          <t>975</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F23" t="n">
-        <v>2092036</v>
+        <v>2092159</v>
       </c>
     </row>
     <row r="24">
@@ -1057,25 +1057,25 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>아이브, 아날로그 추억 소환…‘다시 만난 세계’→‘Hug’까지 명품 커버 비하인드
-7</t>
+          <t>ㄹㅇ 광야로 갈 거 같은데.......
+ 10</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>2021.12.29 16:16</t>
+          <t>2021.12.29 18:08</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>381</t>
+          <t>2488</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F24" t="n">
-        <v>2092035</v>
+        <v>2092158</v>
       </c>
     </row>
     <row r="25">
@@ -1084,25 +1084,25 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>"저는 좌심방과 좌심실이 없는 채 태어나 자다가 죽을 수도 있다는 진단을 세상과 처음 만나자마자 받았었고, 지금은 서른하나를 목전에 두고 있습니다."
- 31</t>
+          <t>'설강화', 상영금지 가처분신청 기각…法 "국민, 맹목적 수용하지 않을 것"
+63</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>2021.12.29 16:16</t>
+          <t>2021.12.29 18:05</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>3823</t>
+          <t>2758</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="F25" t="n">
-        <v>2092034</v>
+        <v>2092157</v>
       </c>
     </row>
     <row r="26">
@@ -1111,295 +1111,25 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>종영 '백종원의 골목식당' 논란에도 의미있던 4년 행보[TV보고서]
-6</t>
+          <t>방금 발매된 아이유 &lt;조각집&gt; 앨범 소개글.TXT
+ 110</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>2021.12.29 16:15</t>
+          <t>2021.12.29 18:05</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>595</t>
+          <t>2962</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>6</v>
+        <v>110</v>
       </c>
       <c r="F26" t="n">
-        <v>2092033</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>호남권에서 장사 접는다는 시계브랜드
- 14</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>2021.12.29 16:15</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>3350</t>
-        </is>
-      </c>
-      <c r="E27" t="n">
-        <v>14</v>
-      </c>
-      <c r="F27" t="n">
-        <v>2092032</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>요즘 투디 아이돌 게임 뮤비(찐 2D)
- 11</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>2021.12.29 16:15</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>530</t>
-        </is>
-      </c>
-      <c r="E28" t="n">
-        <v>11</v>
-      </c>
-      <c r="F28" t="n">
-        <v>2092031</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>아이한테 약 먹이는 법
- 4</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>2021.12.29 16:15</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>1032</t>
-        </is>
-      </c>
-      <c r="E29" t="n">
-        <v>4</v>
-      </c>
-      <c r="F29" t="n">
-        <v>2092030</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>까꿍하는 인형을 본 아기 강아지들의 반응ㅋㅋㅋㅋㅋ
- 12</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>2021.12.29 16:15</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>2124</t>
-        </is>
-      </c>
-      <c r="E30" t="n">
-        <v>12</v>
-      </c>
-      <c r="F30" t="n">
-        <v>2092029</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>올해 Z세대에게 가장 사랑받은 가수는? 멜론 데이터 독점 분석
-21</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>2021.12.29 16:14</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>898</t>
-        </is>
-      </c>
-      <c r="E31" t="n">
-        <v>21</v>
-      </c>
-      <c r="F31" t="n">
-        <v>2092028</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>일본가면 한국보다 확실히 나은 것.jpg
- 40</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>2021.12.29 16:14</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>2794</t>
-        </is>
-      </c>
-      <c r="E32" t="n">
-        <v>40</v>
-      </c>
-      <c r="F32" t="n">
-        <v>2092027</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>10대에 공무원이 된 그들…'지역인재 9급' 최대규모로 뽑았다
-17</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>2021.12.29 16:12</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>1061</t>
-        </is>
-      </c>
-      <c r="E33" t="n">
-        <v>17</v>
-      </c>
-      <c r="F33" t="n">
-        <v>2092026</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>운전할 때 의외로 조수석에 자주 두는 것
- 8</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>2021.12.29 16:12</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>1868</t>
-        </is>
-      </c>
-      <c r="E34" t="n">
-        <v>8</v>
-      </c>
-      <c r="F34" t="n">
-        <v>2092025</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>360도 변한 k-주먹짤 ㄷㄷ
-4</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>2021.12.29 16:11</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>1031</t>
-        </is>
-      </c>
-      <c r="E35" t="n">
-        <v>4</v>
-      </c>
-      <c r="F35" t="n">
-        <v>2092024</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>역대 멜론에서 좋아요 수 10만개 이상곡들 총 모음(12월29일 기준)
-19</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>2021.12.29 16:10</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>854</t>
-        </is>
-      </c>
-      <c r="E36" t="n">
-        <v>19</v>
-      </c>
-      <c r="F36" t="n">
-        <v>2092023</v>
+        <v>2092156</v>
       </c>
     </row>
   </sheetData>

--- a/backend/data/더쿠.xlsx
+++ b/backend/data/더쿠.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,24 +466,24 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[인터뷰]"어머니 덕분에" 치킨집 사장님이 나눔 실천한 이유</t>
+          <t>#BoA has arrived @KWANGYA STATION! 🚂💗</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2021.12.29 18:34</t>
+          <t>2021.12.29 19:02</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>20</t>
         </is>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>2092180</v>
+        <v>2092209</v>
       </c>
     </row>
     <row r="3">
@@ -492,24 +492,25 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>의외로 동인행사에서 하면 안되는 것들</t>
+          <t>아이유 조각집 앨범 특이사항 리코더-??? 휘파람-???
+ 4</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2021.12.29 18:34</t>
+          <t>2021.12.29 19:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>289</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F3" t="n">
-        <v>2092179</v>
+        <v>2092208</v>
       </c>
     </row>
     <row r="4">
@@ -518,25 +519,25 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>최서원 "태블릿PC 돌려달라"…檢 "본인 소유 아니라며"
+          <t>머리 한 가닥도 안보이게 머리색 가리는 중인 마마무 문별.jpg
  1</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2021.12.29 18:33</t>
+          <t>2021.12.29 18:59</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>126</t>
+          <t>416</t>
         </is>
       </c>
       <c r="E4" t="n">
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>2092178</v>
+        <v>2092207</v>
       </c>
     </row>
     <row r="5">
@@ -545,25 +546,25 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>유니클로 최근 5년 실적 추이.jpg
- 13</t>
+          <t>미국인들의 팬티 갈아입는 주기.jpg
+ 44</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2021.12.29 18:32</t>
+          <t>2021.12.29 18:57</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>519</t>
+          <t>1645</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="F5" t="n">
-        <v>2092177</v>
+        <v>2092206</v>
       </c>
     </row>
     <row r="6">
@@ -572,25 +573,25 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>세인트 홀리 패드립
- 9</t>
+          <t>일부 사람들이 5월말 부터 설레는 이유.jpg
+ 4</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2021.12.29 18:29</t>
+          <t>2021.12.29 18:57</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>589</t>
+          <t>809</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F6" t="n">
-        <v>2092176</v>
+        <v>2092205</v>
       </c>
     </row>
     <row r="7">
@@ -599,25 +600,24 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>옛날 광공 vs 요즘 광공.jpg
- 21</t>
+          <t>플스5와 레고 디즈니성을 포기하고 선택한 크리스마스 선물</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2021.12.29 18:28</t>
+          <t>2021.12.29 18:57</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>983</t>
+          <t>385</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>2092175</v>
+        <v>2092204</v>
       </c>
     </row>
     <row r="8">
@@ -626,25 +626,24 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>비아이, 1월 4일 美 '그래미 글로벌스핀' 출격…아시아 최초 [공식입장]
- 6</t>
+          <t>닥터 옥타비우스와 스폰지밥 투샷</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2021.12.29 18:25</t>
+          <t>2021.12.29 18:56</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>693</t>
+          <t>284</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>2092174</v>
+        <v>2092203</v>
       </c>
     </row>
     <row r="9">
@@ -653,25 +652,25 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>입대 3분전 한 아이돌의 진심.twt
- 52</t>
+          <t>의외로 와이어가 없는 장면
+ 6</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2021.12.29 18:25</t>
+          <t>2021.12.29 18:56</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2085</t>
+          <t>544</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="F9" t="n">
-        <v>2092173</v>
+        <v>2092202</v>
       </c>
     </row>
     <row r="10">
@@ -680,24 +679,25 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>OMEGA X(오메가엑스) 2nd Mini Album [LOVE ME LIKE] VIDEO TEASER LIKE ver. #2</t>
+          <t>반박불가인 (여자)아이들 미연 셀프칭찬
+ 1</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2021.12.29 18:25</t>
+          <t>2021.12.29 18:55</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>228</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>2092172</v>
+        <v>2092201</v>
       </c>
     </row>
     <row r="11">
@@ -706,25 +706,25 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>엔시티 막냉이들 꿈빛 파티시엘 챌린지.twt
-1</t>
+          <t>2019년 누군가가 세상을 떠나고, 그런 세상에 남겨지는 것에 대해 생각하다가 만들기 시작했다는 아이유 타이틀곡 &lt;겨울잠&gt;
+3</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2021.12.29 18:24</t>
+          <t>2021.12.29 18:54</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>271</t>
+          <t>618</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11" t="n">
-        <v>2092171</v>
+        <v>2092200</v>
       </c>
     </row>
     <row r="12">
@@ -733,25 +733,25 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>처음으로 눈을 본 고양이❄️❄️
- 11</t>
+          <t>공부할 때 틀어놓기 좋은 쿠키런 킹덤 '따뜻한 벽난로 앞 쿠키🍪들과 함께하는 연말 저녁' 영상
+ 3</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2021.12.29 18:22</t>
+          <t>2021.12.29 18:54</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1001</t>
+          <t>325</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F12" t="n">
-        <v>2092170</v>
+        <v>2092199</v>
       </c>
     </row>
     <row r="13">
@@ -760,25 +760,25 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>딸을 블랙홀로 보낸 교수님
- 13</t>
+          <t>체인지핏 전속모델이 된 노제
+ 5</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2021.12.29 18:21</t>
+          <t>2021.12.29 18:54</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1051</t>
+          <t>808</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="F13" t="n">
-        <v>2092169</v>
+        <v>2092198</v>
       </c>
     </row>
     <row r="14">
@@ -787,25 +787,25 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>🥰😍다양한 메이크업한 이쁜 언니들💄👄 (💯장 주의)
- 30</t>
+          <t>산타파이브가 흥하자 나타난 것🤬
+1</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2021.12.29 18:21</t>
+          <t>2021.12.29 18:53</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>1061</t>
+          <t>304</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>2092168</v>
+        <v>2092197</v>
       </c>
     </row>
     <row r="15">
@@ -814,25 +814,25 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>SMTOWN 인스타그램 릴스 태연 &amp; 키
-19</t>
+          <t>2년 연속 단독 MC로 진행한다는 연말 시상식.....gisa
+ 25</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2021.12.29 18:20</t>
+          <t>2021.12.29 18:52</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>742</t>
+          <t>2519</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F15" t="n">
-        <v>2092167</v>
+        <v>2092196</v>
       </c>
     </row>
     <row r="16">
@@ -841,25 +841,25 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>썸네일을 골라주세여!🐧
- 44</t>
+          <t>겪어보지 않아도 격공 가능한 현실반영 20000% 드라마
+ 3</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2021.12.29 18:17</t>
+          <t>2021.12.29 18:51</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>738</t>
+          <t>790</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="F16" t="n">
-        <v>2092166</v>
+        <v>2092195</v>
       </c>
     </row>
     <row r="17">
@@ -868,25 +868,25 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>[악작극지문1] 대만드라마의 고전명작 &amp; 입문작! ＜악작극지문1 = 장난스런키스 시즌1＞ -7화- 1
- 2</t>
+          <t>데뷔 티저 공개하자마자 200만 찍는 신인그룹
+ 13</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2021.12.29 18:17</t>
+          <t>2021.12.29 18:49</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>1109</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="F17" t="n">
-        <v>2092165</v>
+        <v>2092194</v>
       </c>
     </row>
     <row r="18">
@@ -895,25 +895,25 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>원덬 맘을 흔드는 트와이스 미나 최근 미모
- 11</t>
+          <t>미래소년, 'Mnet 재팬 팬스 초이스 어워즈' 신인상 수상
+ 4</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2021.12.29 18:15</t>
+          <t>2021.12.29 18:47</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>974</t>
+          <t>237</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="F18" t="n">
-        <v>2092164</v>
+        <v>2092193</v>
       </c>
     </row>
     <row r="19">
@@ -922,25 +922,25 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>힙합 아티스트 그냥노창(전 천재노창) 근황
-2</t>
+          <t>"최저임금에 상여·복리비 포함 합헌" 사용자 손 들어준 헌재
+35</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2021.12.29 18:14</t>
+          <t>2021.12.29 18:47</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>936</t>
+          <t>1183</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="F19" t="n">
-        <v>2092163</v>
+        <v>2092192</v>
       </c>
     </row>
     <row r="20">
@@ -949,25 +949,25 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>어그로 만렙 찍은 문과의 드립.jpg
- 6</t>
+          <t>김원덬포브스 선정 날미치게하는 주간영상1위
+2</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2021.12.29 18:10</t>
+          <t>2021.12.29 18:46</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1240</t>
+          <t>132</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F20" t="n">
-        <v>2092162</v>
+        <v>2092191</v>
       </c>
     </row>
     <row r="21">
@@ -976,25 +976,25 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>[싱어게인2] 슈가맨조 미공개 방영분 (1차 탈락자)
-7</t>
+          <t>올해 7월에 있었던 웹툰 작가가 싸불로 출판사 폐업시킨 사건
+ 37</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2021.12.29 18:10</t>
+          <t>2021.12.29 18:44</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1393</t>
+          <t>2751</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="F21" t="n">
-        <v>2092161</v>
+        <v>2092190</v>
       </c>
     </row>
     <row r="22">
@@ -1003,25 +1003,25 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>[싱어게인2] 슈가맨조 미공개 방영분 (1차 탈락자)
-7</t>
+          <t>의외로 유학파 출신인 여자 연습생
+ 6</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2021.12.29 18:10</t>
+          <t>2021.12.29 18:43</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>1394</t>
+          <t>1965</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F22" t="n">
-        <v>2092160</v>
+        <v>2092189</v>
       </c>
     </row>
     <row r="23">
@@ -1030,25 +1030,25 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>새끼원앙들의 첫 비행
-10</t>
+          <t>캐시워크
+9</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2021.12.29 18:10</t>
+          <t>2021.12.29 18:43</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>975</t>
+          <t>339</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F23" t="n">
-        <v>2092159</v>
+        <v>2092188</v>
       </c>
     </row>
     <row r="24">
@@ -1057,25 +1057,25 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>ㄹㅇ 광야로 갈 거 같은데.......
- 10</t>
+          <t>우리나라에서 제일 땅값 비싼 건물 이라는게 너무나도 이해 안가는 장소
+ 36</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>2021.12.29 18:08</t>
+          <t>2021.12.29 18:42</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2488</t>
+          <t>2879</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="F24" t="n">
-        <v>2092158</v>
+        <v>2092187</v>
       </c>
     </row>
     <row r="25">
@@ -1084,25 +1084,25 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>'설강화', 상영금지 가처분신청 기각…法 "국민, 맹목적 수용하지 않을 것"
-63</t>
+          <t>무홍보 아이유 조각집 실시간 그래프
+ 37</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>2021.12.29 18:05</t>
+          <t>2021.12.29 18:41</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2758</t>
+          <t>2269</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="F25" t="n">
-        <v>2092157</v>
+        <v>2092186</v>
       </c>
     </row>
     <row r="26">
@@ -1111,25 +1111,241 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>방금 발매된 아이유 &lt;조각집&gt; 앨범 소개글.TXT
- 110</t>
+          <t>무섭다고 난리난 최근 공익광고
+ 64</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>2021.12.29 18:05</t>
+          <t>2021.12.29 18:41</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2962</t>
+          <t>3123</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>110</v>
+        <v>64</v>
       </c>
       <c r="F26" t="n">
-        <v>2092156</v>
+        <v>2092185</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>대놓고 훔치는데도 얼굴 때문에 안 보임
+ 9</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>2021.12.29 18:36</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2272</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>9</v>
+      </c>
+      <c r="F27" t="n">
+        <v>2092184</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>나의 군대 이야기 &lt;살다살다 고라니에게..제보썰&gt;.manhwa
+ 5</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>2021.12.29 18:35</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>857</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>5</v>
+      </c>
+      <c r="F28" t="n">
+        <v>2092183</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>남편과 단둘이 여행간걸 기억 못하는 장윤정
+ 13</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>2021.12.29 18:35</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2064</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>13</v>
+      </c>
+      <c r="F29" t="n">
+        <v>2092182</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>전세계에 미터(m)법을 뿌린 두 영웅
+ 8</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>2021.12.29 18:35</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1059</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>8</v>
+      </c>
+      <c r="F30" t="n">
+        <v>2092181</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>[스걸파] 다시봐도 무대 찢은 YGX팀 '턴즈' 무대
+7</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>2021.12.29 18:34</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>650</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>7</v>
+      </c>
+      <c r="F31" t="n">
+        <v>2092180</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>[인터뷰]"어머니 덕분에" 치킨집 사장님이 나눔 실천한 이유
+ 4</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>2021.12.29 18:34</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>501</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>4</v>
+      </c>
+      <c r="F32" t="n">
+        <v>2092179</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>의외로 동인행사에서 하면 안되는 것들
+20</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>2021.12.29 18:34</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1343</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>20</v>
+      </c>
+      <c r="F33" t="n">
+        <v>2092178</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>최서원 (전직 최순실) "태블릿PC 돌려달라"…檢 "본인 소유 아니라며"
+ 21</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>2021.12.29 18:33</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1776</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>21</v>
+      </c>
+      <c r="F34" t="n">
+        <v>2092177</v>
       </c>
     </row>
   </sheetData>

--- a/backend/data/더쿠.xlsx
+++ b/backend/data/더쿠.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,24 +466,24 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>#BoA has arrived @KWANGYA STATION! 🚂💗</t>
+          <t>어떤 상황에서도 인정 개빠른 정하늬제이.ytb</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2021.12.29 19:02</t>
+          <t>2021.12.29 23:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>76</t>
         </is>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>2092209</v>
+        <v>2092246</v>
       </c>
     </row>
     <row r="3">
@@ -492,25 +492,25 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>아이유 조각집 앨범 특이사항 리코더-??? 휘파람-???
- 4</t>
+          <t>일본 닥터K 근황 ...
+ 14</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2021.12.29 19:00</t>
+          <t>2021.12.29 22:54</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>289</t>
+          <t>1361</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="F3" t="n">
-        <v>2092208</v>
+        <v>2092245</v>
       </c>
     </row>
     <row r="4">
@@ -519,25 +519,25 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>머리 한 가닥도 안보이게 머리색 가리는 중인 마마무 문별.jpg
- 1</t>
+          <t>기안 악플 심각한 실시간 키 인스타 댓글 상황
+ 111</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2021.12.29 18:59</t>
+          <t>2021.12.29 22:54</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>416</t>
+          <t>5313</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>111</v>
       </c>
       <c r="F4" t="n">
-        <v>2092207</v>
+        <v>2092244</v>
       </c>
     </row>
     <row r="5">
@@ -546,25 +546,25 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>미국인들의 팬티 갈아입는 주기.jpg
- 44</t>
+          <t>포켓몬 지우 근황
+ 4</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2021.12.29 18:57</t>
+          <t>2021.12.29 22:54</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1645</t>
+          <t>436</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="F5" t="n">
-        <v>2092206</v>
+        <v>2092243</v>
       </c>
     </row>
     <row r="6">
@@ -573,25 +573,25 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>일부 사람들이 5월말 부터 설레는 이유.jpg
- 4</t>
+          <t>토지 박경리 작가가 스무살때까지 한글을 몰랐던 이유
+ 27</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2021.12.29 18:57</t>
+          <t>2021.12.29 22:52</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>809</t>
+          <t>2323</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="F6" t="n">
-        <v>2092205</v>
+        <v>2092242</v>
       </c>
     </row>
     <row r="7">
@@ -600,24 +600,25 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>플스5와 레고 디즈니성을 포기하고 선택한 크리스마스 선물</t>
+          <t>콜롬비아 여자가 본 한국.jpg
+ 24</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2021.12.29 18:57</t>
+          <t>2021.12.29 22:48</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>385</t>
+          <t>2673</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="F7" t="n">
-        <v>2092204</v>
+        <v>2092241</v>
       </c>
     </row>
     <row r="8">
@@ -626,24 +627,25 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>닥터 옥타비우스와 스폰지밥 투샷</t>
+          <t>엄마의 영상편지를 성우가 더빙하면 귀여워질까 싶어서 성우한테 부탁했더니 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ.twt
+ 14</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2021.12.29 18:56</t>
+          <t>2021.12.29 22:47</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>284</t>
+          <t>1419</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F8" t="n">
-        <v>2092203</v>
+        <v>2092240</v>
       </c>
     </row>
     <row r="9">
@@ -652,25 +654,25 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>의외로 와이어가 없는 장면
- 6</t>
+          <t>"훈훈함 한도초과" 여진구, 폴라로이드 감성에 담은 잘생김!
+ 1</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2021.12.29 18:56</t>
+          <t>2021.12.29 22:45</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>544</t>
+          <t>474</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>2092202</v>
+        <v>2092239</v>
       </c>
     </row>
     <row r="10">
@@ -679,25 +681,25 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>반박불가인 (여자)아이들 미연 셀프칭찬
- 1</t>
+          <t>층간소음을 해결한 누나
+ 8</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2021.12.29 18:55</t>
+          <t>2021.12.29 22:45</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>2544</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F10" t="n">
-        <v>2092201</v>
+        <v>2092238</v>
       </c>
     </row>
     <row r="11">
@@ -706,25 +708,25 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2019년 누군가가 세상을 떠나고, 그런 세상에 남겨지는 것에 대해 생각하다가 만들기 시작했다는 아이유 타이틀곡 &lt;겨울잠&gt;
-3</t>
+          <t>현 시각 백업 데이터를 포함한 모든 서버 데이터가 날아간 게임.piu
+ 41</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2021.12.29 18:54</t>
+          <t>2021.12.29 22:43</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>618</t>
+          <t>4256</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="F11" t="n">
-        <v>2092200</v>
+        <v>2092237</v>
       </c>
     </row>
     <row r="12">
@@ -733,25 +735,25 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>공부할 때 틀어놓기 좋은 쿠키런 킹덤 '따뜻한 벽난로 앞 쿠키🍪들과 함께하는 연말 저녁' 영상
- 3</t>
+          <t>모델같은 모습으로 매니아층 두터운 인형
+ 4</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2021.12.29 18:54</t>
+          <t>2021.12.29 22:43</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>325</t>
+          <t>1578</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F12" t="n">
-        <v>2092199</v>
+        <v>2092236</v>
       </c>
     </row>
     <row r="13">
@@ -760,25 +762,25 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>체인지핏 전속모델이 된 노제
- 5</t>
+          <t>요즘 중독성 장난아닌 광고음악
+6</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2021.12.29 18:54</t>
+          <t>2021.12.29 22:43</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>808</t>
+          <t>653</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F13" t="n">
-        <v>2092198</v>
+        <v>2092235</v>
       </c>
     </row>
     <row r="14">
@@ -787,25 +789,25 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>산타파이브가 흥하자 나타난 것🤬
-1</t>
+          <t>일본인 방문객 급감에 한숨짓는 하와이 관광업계…연간 손실금액 2조원대
+ 32</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2021.12.29 18:53</t>
+          <t>2021.12.29 22:43</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>304</t>
+          <t>1642</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="F14" t="n">
-        <v>2092197</v>
+        <v>2092234</v>
       </c>
     </row>
     <row r="15">
@@ -814,25 +816,25 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2년 연속 단독 MC로 진행한다는 연말 시상식.....gisa
- 25</t>
+          <t>김성주 아들 김민국 "'아빠! 어디가?'서 울던 나, 한대 치고파" [MBC 연예대상]
+ 4</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2021.12.29 18:52</t>
+          <t>2021.12.29 22:42</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2519</t>
+          <t>1075</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="F15" t="n">
-        <v>2092196</v>
+        <v>2092233</v>
       </c>
     </row>
     <row r="16">
@@ -841,25 +843,25 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>겪어보지 않아도 격공 가능한 현실반영 20000% 드라마
- 3</t>
+          <t>슈숙.숙.시발럼아.
+ 2</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2021.12.29 18:51</t>
+          <t>2021.12.29 22:41</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>790</t>
+          <t>865</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16" t="n">
-        <v>2092195</v>
+        <v>2092232</v>
       </c>
     </row>
     <row r="17">
@@ -868,25 +870,25 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>데뷔 티저 공개하자마자 200만 찍는 신인그룹
- 13</t>
+          <t>셜록 새시즌 시작하기 전 베네딕트와 마틴이 팬한테 보냈다는 편지
+ 33</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2021.12.29 18:49</t>
+          <t>2021.12.29 22:40</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1109</t>
+          <t>2032</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="F17" t="n">
-        <v>2092194</v>
+        <v>2092231</v>
       </c>
     </row>
     <row r="18">
@@ -895,25 +897,25 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>미래소년, 'Mnet 재팬 팬스 초이스 어워즈' 신인상 수상
- 4</t>
+          <t>"요금 할인받고 천안 간다"…전철-시내버스 환승 할인제 3월 도입
+14</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2021.12.29 18:47</t>
+          <t>2021.12.29 22:40</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>597</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="F18" t="n">
-        <v>2092193</v>
+        <v>2092230</v>
       </c>
     </row>
     <row r="19">
@@ -922,25 +924,25 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>"최저임금에 상여·복리비 포함 합헌" 사용자 손 들어준 헌재
-35</t>
+          <t>사랑의 불시착 미국에서 리메이크 확정남.jpg
+ 68</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2021.12.29 18:47</t>
+          <t>2021.12.29 22:40</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1183</t>
+          <t>4889</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="F19" t="n">
-        <v>2092192</v>
+        <v>2092229</v>
       </c>
     </row>
     <row r="20">
@@ -949,25 +951,25 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>김원덬포브스 선정 날미치게하는 주간영상1위
-2</t>
+          <t>맑은 눈의 광기.twt
+3</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2021.12.29 18:46</t>
+          <t>2021.12.29 22:40</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>132</t>
+          <t>805</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F20" t="n">
-        <v>2092191</v>
+        <v>2092228</v>
       </c>
     </row>
     <row r="21">
@@ -976,25 +978,25 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>올해 7월에 있었던 웹툰 작가가 싸불로 출판사 폐업시킨 사건
- 37</t>
+          <t>기자유투버 김기자가 얌희 가짜성분 논란 무설탕잼 제보받는다 함(11월 이전 생산 미개봉잼 보유자 필독)
+ 8</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2021.12.29 18:44</t>
+          <t>2021.12.29 22:39</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2751</t>
+          <t>1101</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="F21" t="n">
-        <v>2092190</v>
+        <v>2092227</v>
       </c>
     </row>
     <row r="22">
@@ -1003,25 +1005,25 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>의외로 유학파 출신인 여자 연습생
- 6</t>
+          <t>붐, 男 MC상 받고 눈물 "하늘서 지켜주는 父에 상 바쳐"
+17</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2021.12.29 18:43</t>
+          <t>2021.12.29 22:38</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>1965</t>
+          <t>1754</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="F22" t="n">
-        <v>2092189</v>
+        <v>2092226</v>
       </c>
     </row>
     <row r="23">
@@ -1030,25 +1032,25 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>캐시워크
-9</t>
+          <t>동남권 4개 철도 개통… 3년 뒤엔 수도권과 2시간대
+ 3</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2021.12.29 18:43</t>
+          <t>2021.12.29 22:37</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>339</t>
+          <t>285</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F23" t="n">
-        <v>2092188</v>
+        <v>2092225</v>
       </c>
     </row>
     <row r="24">
@@ -1057,25 +1059,25 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>우리나라에서 제일 땅값 비싼 건물 이라는게 너무나도 이해 안가는 장소
- 36</t>
+          <t>중부내륙선 ‘이천~충주’ 31일 KTX 개통... 30분대 생활권 가능
+ 4</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>2021.12.29 18:42</t>
+          <t>2021.12.29 22:36</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2879</t>
+          <t>344</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="F24" t="n">
-        <v>2092187</v>
+        <v>2092224</v>
       </c>
     </row>
     <row r="25">
@@ -1084,25 +1086,25 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>무홍보 아이유 조각집 실시간 그래프
- 37</t>
+          <t>부리부리 이션의 하려고해 고백
+17</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>2021.12.29 18:41</t>
+          <t>2021.12.29 22:35</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2269</t>
+          <t>624</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="F25" t="n">
-        <v>2092186</v>
+        <v>2092223</v>
       </c>
     </row>
     <row r="26">
@@ -1111,25 +1113,25 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>무섭다고 난리난 최근 공익광고
- 64</t>
+          <t>대한항공-아시아나 결합, 조건부 승인…슬롯반납·운수권 재배분
+ 9</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>2021.12.29 18:41</t>
+          <t>2021.12.29 22:33</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>3123</t>
+          <t>500</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>64</v>
+        <v>9</v>
       </c>
       <c r="F26" t="n">
-        <v>2092185</v>
+        <v>2092222</v>
       </c>
     </row>
     <row r="27">
@@ -1138,25 +1140,25 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>대놓고 훔치는데도 얼굴 때문에 안 보임
- 9</t>
+          <t>2021년 하반기 일본 연령대별 남녀가 뽑은 가장 좋아하는 케이팝 여그룹 순위
+ 20</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>2021.12.29 18:36</t>
+          <t>2021.12.29 22:33</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2272</t>
+          <t>1356</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="F27" t="n">
-        <v>2092184</v>
+        <v>2092221</v>
       </c>
     </row>
     <row r="28">
@@ -1165,187 +1167,25 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>나의 군대 이야기 &lt;살다살다 고라니에게..제보썰&gt;.manhwa
- 5</t>
+          <t>MBC 연예대상 특별상 받은 전소연 수상소감이 좋았던 이유
+ 10</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>2021.12.29 18:35</t>
+          <t>2021.12.29 22:32</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>857</t>
+          <t>2942</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F28" t="n">
-        <v>2092183</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>남편과 단둘이 여행간걸 기억 못하는 장윤정
- 13</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>2021.12.29 18:35</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>2064</t>
-        </is>
-      </c>
-      <c r="E29" t="n">
-        <v>13</v>
-      </c>
-      <c r="F29" t="n">
-        <v>2092182</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>전세계에 미터(m)법을 뿌린 두 영웅
- 8</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>2021.12.29 18:35</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>1059</t>
-        </is>
-      </c>
-      <c r="E30" t="n">
-        <v>8</v>
-      </c>
-      <c r="F30" t="n">
-        <v>2092181</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>[스걸파] 다시봐도 무대 찢은 YGX팀 '턴즈' 무대
-7</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>2021.12.29 18:34</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>650</t>
-        </is>
-      </c>
-      <c r="E31" t="n">
-        <v>7</v>
-      </c>
-      <c r="F31" t="n">
-        <v>2092180</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>[인터뷰]"어머니 덕분에" 치킨집 사장님이 나눔 실천한 이유
- 4</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>2021.12.29 18:34</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>501</t>
-        </is>
-      </c>
-      <c r="E32" t="n">
-        <v>4</v>
-      </c>
-      <c r="F32" t="n">
-        <v>2092179</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>의외로 동인행사에서 하면 안되는 것들
-20</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>2021.12.29 18:34</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>1343</t>
-        </is>
-      </c>
-      <c r="E33" t="n">
-        <v>20</v>
-      </c>
-      <c r="F33" t="n">
-        <v>2092178</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>최서원 (전직 최순실) "태블릿PC 돌려달라"…檢 "본인 소유 아니라며"
- 21</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>2021.12.29 18:33</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>1776</t>
-        </is>
-      </c>
-      <c r="E34" t="n">
-        <v>21</v>
-      </c>
-      <c r="F34" t="n">
-        <v>2092177</v>
+        <v>2092220</v>
       </c>
     </row>
   </sheetData>

--- a/backend/data/더쿠.xlsx
+++ b/backend/data/더쿠.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,24 +466,24 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>어떤 상황에서도 인정 개빠른 정하늬제이.ytb</t>
+          <t>해외유학 안갔는데도 영어 잘한다고 생각하는 한국 국적 아이돌 세명</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2021.12.29 23:00</t>
+          <t>2021.12.30 17:36</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>2092246</v>
+        <v>2092874</v>
       </c>
     </row>
     <row r="3">
@@ -492,25 +492,25 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>일본 닥터K 근황 ...
- 14</t>
+          <t>설강화라는 단어는 어디에서 튀어나온 거임? 한국어도 아닌 것 같은데
+ 42</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2021.12.29 22:54</t>
+          <t>2021.12.30 17:31</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1361</t>
+          <t>1922</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="F3" t="n">
-        <v>2092245</v>
+        <v>2092873</v>
       </c>
     </row>
     <row r="4">
@@ -519,25 +519,25 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>기안 악플 심각한 실시간 키 인스타 댓글 상황
- 111</t>
+          <t>뽐뿌에도 올라온 설강화 법적대응 관련 공지.jpg
+ 42</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2021.12.29 22:54</t>
+          <t>2021.12.30 17:30</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>5313</t>
+          <t>1752</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>111</v>
+        <v>42</v>
       </c>
       <c r="F4" t="n">
-        <v>2092244</v>
+        <v>2092872</v>
       </c>
     </row>
     <row r="5">
@@ -546,25 +546,25 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>포켓몬 지우 근황
- 4</t>
+          <t>JTBC의 폐국을 청원합니다.
+ 25</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2021.12.29 22:54</t>
+          <t>2021.12.30 17:30</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>436</t>
+          <t>594</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="F5" t="n">
-        <v>2092243</v>
+        <v>2092871</v>
       </c>
     </row>
     <row r="6">
@@ -573,25 +573,25 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>토지 박경리 작가가 스무살때까지 한글을 몰랐던 이유
- 27</t>
+          <t>ㄹㅇ 에어팟 좀 안끼고 왔으면 좋겠음
+ 13</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2021.12.29 22:52</t>
+          <t>2021.12.30 17:29</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2323</t>
+          <t>1597</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="F6" t="n">
-        <v>2092242</v>
+        <v>2092870</v>
       </c>
     </row>
     <row r="7">
@@ -600,25 +600,24 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>콜롬비아 여자가 본 한국.jpg
- 24</t>
+          <t>2021년 연말 영화 결산을 한번 해보자.jpg</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2021.12.29 22:48</t>
+          <t>2021.12.30 17:29</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2673</t>
+          <t>172</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>2092241</v>
+        <v>2092869</v>
       </c>
     </row>
     <row r="8">
@@ -627,25 +626,25 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>엄마의 영상편지를 성우가 더빙하면 귀여워질까 싶어서 성우한테 부탁했더니 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ.twt
- 14</t>
+          <t>백업 포수까지 확보, LG의 알찬 스토브리그
+ 1</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2021.12.29 22:47</t>
+          <t>2021.12.30 17:28</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1419</t>
+          <t>123</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>2092240</v>
+        <v>2092868</v>
       </c>
     </row>
     <row r="9">
@@ -654,25 +653,25 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>"훈훈함 한도초과" 여진구, 폴라로이드 감성에 담은 잘생김!
- 1</t>
+          <t>캐시워크 쥬비스
+10</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2021.12.29 22:45</t>
+          <t>2021.12.30 17:27</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>474</t>
+          <t>174</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F9" t="n">
-        <v>2092239</v>
+        <v>2092867</v>
       </c>
     </row>
     <row r="10">
@@ -681,25 +680,25 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>층간소음을 해결한 누나
- 8</t>
+          <t>[KBO] 역대급이라는 올해 스토브리그 프차 이적
+ 7</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2021.12.29 22:45</t>
+          <t>2021.12.30 17:26</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2544</t>
+          <t>587</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F10" t="n">
-        <v>2092238</v>
+        <v>2092866</v>
       </c>
     </row>
     <row r="11">
@@ -708,25 +707,25 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>현 시각 백업 데이터를 포함한 모든 서버 데이터가 날아간 게임.piu
- 41</t>
+          <t>학생들의 교재 불법 다운로드에 분노한 교수님.jpg
+ 44</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2021.12.29 22:43</t>
+          <t>2021.12.30 17:24</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>4256</t>
+          <t>3212</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F11" t="n">
-        <v>2092237</v>
+        <v>2092865</v>
       </c>
     </row>
     <row r="12">
@@ -735,25 +734,25 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>모델같은 모습으로 매니아층 두터운 인형
- 4</t>
+          <t>요즘다시 알고리즘뜨는 영상&lt;1987년 이한열에게&gt;
+1</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2021.12.29 22:43</t>
+          <t>2021.12.30 17:23</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1578</t>
+          <t>288</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>2092236</v>
+        <v>2092864</v>
       </c>
     </row>
     <row r="13">
@@ -762,25 +761,25 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>요즘 중독성 장난아닌 광고음악
-6</t>
+          <t>파충류 유투버한테 기증 겸 유기하는 사람들이 파충류를 대하는 방식
+8</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2021.12.29 22:43</t>
+          <t>2021.12.30 17:23</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>653</t>
+          <t>894</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F13" t="n">
-        <v>2092235</v>
+        <v>2092863</v>
       </c>
     </row>
     <row r="14">
@@ -789,25 +788,25 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>일본인 방문객 급감에 한숨짓는 하와이 관광업계…연간 손실금액 2조원대
- 32</t>
+          <t>강혜원 소속사 에잇디 고소진행상황
+ 10</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2021.12.29 22:43</t>
+          <t>2021.12.30 17:22</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>1642</t>
+          <t>1152</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="F14" t="n">
-        <v>2092234</v>
+        <v>2092862</v>
       </c>
     </row>
     <row r="15">
@@ -816,25 +815,25 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>김성주 아들 김민국 "'아빠! 어디가?'서 울던 나, 한대 치고파" [MBC 연예대상]
- 4</t>
+          <t>방탄 진 트위터 업뎃(뷔 생일 축하)
+ 12</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2021.12.29 22:42</t>
+          <t>2021.12.30 17:21</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1075</t>
+          <t>1069</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F15" t="n">
-        <v>2092233</v>
+        <v>2092861</v>
       </c>
     </row>
     <row r="16">
@@ -843,25 +842,25 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>슈숙.숙.시발럼아.
- 2</t>
+          <t>혓바닥 좀 그만 내밀어라 진짜 꼴보기싫다 (feat. 과천꿀수박)
+ 31</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2021.12.29 22:41</t>
+          <t>2021.12.30 17:20</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>865</t>
+          <t>2862</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="F16" t="n">
-        <v>2092232</v>
+        <v>2092860</v>
       </c>
     </row>
     <row r="17">
@@ -870,25 +869,25 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>셜록 새시즌 시작하기 전 베네딕트와 마틴이 팬한테 보냈다는 편지
- 33</t>
+          <t>Jtbc 설강화에 대한 입장 한줄요약
+ 130</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2021.12.29 22:40</t>
+          <t>2021.12.30 17:20</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2032</t>
+          <t>3801</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>33</v>
+        <v>130</v>
       </c>
       <c r="F17" t="n">
-        <v>2092231</v>
+        <v>2092859</v>
       </c>
     </row>
     <row r="18">
@@ -897,25 +896,25 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>"요금 할인받고 천안 간다"…전철-시내버스 환승 할인제 3월 도입
-14</t>
+          <t>스타벅스 신메뉴 (뉴이어시트러스티)
+8</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2021.12.29 22:40</t>
+          <t>2021.12.30 17:18</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>597</t>
+          <t>2367</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F18" t="n">
-        <v>2092230</v>
+        <v>2092858</v>
       </c>
     </row>
     <row r="19">
@@ -924,25 +923,25 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>사랑의 불시착 미국에서 리메이크 확정남.jpg
- 68</t>
+          <t>인터파크 또 해킹당한 듯
+ 58</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2021.12.29 22:40</t>
+          <t>2021.12.30 17:16</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>4889</t>
+          <t>3878</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="F19" t="n">
-        <v>2092229</v>
+        <v>2092857</v>
       </c>
     </row>
     <row r="20">
@@ -951,25 +950,25 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>맑은 눈의 광기.twt
-3</t>
+          <t>안소니 홉킨스 지금보다 젊었을 때
+ 2</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2021.12.29 22:40</t>
+          <t>2021.12.30 17:16</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>805</t>
+          <t>925</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F20" t="n">
-        <v>2092228</v>
+        <v>2092856</v>
       </c>
     </row>
     <row r="21">
@@ -978,25 +977,25 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>기자유투버 김기자가 얌희 가짜성분 논란 무설탕잼 제보받는다 함(11월 이전 생산 미개봉잼 보유자 필독)
- 8</t>
+          <t>JTBC, 설강화 여주는 운동권 학생이 아님
+ 70</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2021.12.29 22:39</t>
+          <t>2021.12.30 17:13</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1101</t>
+          <t>4247</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>8</v>
+        <v>70</v>
       </c>
       <c r="F21" t="n">
-        <v>2092227</v>
+        <v>2092855</v>
       </c>
     </row>
     <row r="22">
@@ -1005,25 +1004,25 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>붐, 男 MC상 받고 눈물 "하늘서 지켜주는 父에 상 바쳐"
-17</t>
+          <t>우리가 지금 민주주의를 누릴 수 있는 이유
+ 26</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2021.12.29 22:38</t>
+          <t>2021.12.30 17:13</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>1754</t>
+          <t>1101</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="F22" t="n">
-        <v>2092226</v>
+        <v>2092854</v>
       </c>
     </row>
     <row r="23">
@@ -1032,25 +1031,25 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>동남권 4개 철도 개통… 3년 뒤엔 수도권과 2시간대
- 3</t>
+          <t>[아는형님] 형.친.소 '아는 여고' 여섯 퀸카들이 형님 학교에 전학을 왔습니다!
+2</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2021.12.29 22:37</t>
+          <t>2021.12.30 17:12</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>285</t>
+          <t>929</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F23" t="n">
-        <v>2092225</v>
+        <v>2092853</v>
       </c>
     </row>
     <row r="24">
@@ -1059,25 +1058,25 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>중부내륙선 ‘이천~충주’ 31일 KTX 개통... 30분대 생활권 가능
- 4</t>
+          <t>드라마, 예능 시상식 왜 안만들까 싶은 방송사
+ 30</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>2021.12.29 22:36</t>
+          <t>2021.12.30 17:11</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>344</t>
+          <t>2661</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="F24" t="n">
-        <v>2092224</v>
+        <v>2092852</v>
       </c>
     </row>
     <row r="25">
@@ -1086,25 +1085,25 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>부리부리 이션의 하려고해 고백
-17</t>
+          <t>[전문] ‘설강화’의 경고 “비방·날조→강경 대응”
+ 97</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>2021.12.29 22:35</t>
+          <t>2021.12.30 17:11</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>624</t>
+          <t>2099</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>17</v>
+        <v>97</v>
       </c>
       <c r="F25" t="n">
-        <v>2092223</v>
+        <v>2092851</v>
       </c>
     </row>
     <row r="26">
@@ -1113,79 +1112,25 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>대한항공-아시아나 결합, 조건부 승인…슬롯반납·운수권 재배분
- 9</t>
+          <t>네이버페이 180
+81</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>2021.12.29 22:33</t>
+          <t>2021.12.30 17:09</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>500</t>
+          <t>2473</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>9</v>
+        <v>81</v>
       </c>
       <c r="F26" t="n">
-        <v>2092222</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>2021년 하반기 일본 연령대별 남녀가 뽑은 가장 좋아하는 케이팝 여그룹 순위
- 20</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>2021.12.29 22:33</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>1356</t>
-        </is>
-      </c>
-      <c r="E27" t="n">
-        <v>20</v>
-      </c>
-      <c r="F27" t="n">
-        <v>2092221</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>MBC 연예대상 특별상 받은 전소연 수상소감이 좋았던 이유
- 10</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>2021.12.29 22:32</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>2942</t>
-        </is>
-      </c>
-      <c r="E28" t="n">
-        <v>10</v>
-      </c>
-      <c r="F28" t="n">
-        <v>2092220</v>
+        <v>2092850</v>
       </c>
     </row>
   </sheetData>

--- a/backend/data/더쿠.xlsx
+++ b/backend/data/더쿠.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,24 +466,24 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>해외유학 안갔는데도 영어 잘한다고 생각하는 한국 국적 아이돌 세명</t>
+          <t>수록곡 맛집 대열에 들어갈것 같은 신인여돌.mov</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2021.12.30 17:36</t>
+          <t>2021.12.30 18:05</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>49</t>
         </is>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>2092874</v>
+        <v>2092912</v>
       </c>
     </row>
     <row r="3">
@@ -492,25 +492,24 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>설강화라는 단어는 어디에서 튀어나온 거임? 한국어도 아닌 것 같은데
- 42</t>
+          <t>갓세븐 뱀뱀 Who Are You 챌린지 with 산다라박</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2021.12.30 17:31</t>
+          <t>2021.12.30 18:05</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1922</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>2092873</v>
+        <v>2092911</v>
       </c>
     </row>
     <row r="4">
@@ -519,25 +518,24 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>뽐뿌에도 올라온 설강화 법적대응 관련 공지.jpg
- 42</t>
+          <t>iScreaM Vol.13 : NCT 127 Sticker Remix Will Not Fear, Lodge Boy</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2021.12.30 17:30</t>
+          <t>2021.12.30 18:04</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1752</t>
+          <t>17</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>2092872</v>
+        <v>2092910</v>
       </c>
     </row>
     <row r="5">
@@ -546,25 +544,24 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>JTBC의 폐국을 청원합니다.
- 25</t>
+          <t>아이브, 스포티파이·유튜브 뮤직·타이달 韓 차트 1위 [공식입장]</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2021.12.30 17:30</t>
+          <t>2021.12.30 18:04</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>594</t>
+          <t>36</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>2092871</v>
+        <v>2092909</v>
       </c>
     </row>
     <row r="6">
@@ -573,25 +570,25 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ㄹㅇ 에어팟 좀 안끼고 왔으면 좋겠음
- 13</t>
+          <t>새로 나온 에어팟 프로 에디션.jpg
+ 1</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2021.12.30 17:29</t>
+          <t>2021.12.30 18:04</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1597</t>
+          <t>421</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>2092870</v>
+        <v>2092908</v>
       </c>
     </row>
     <row r="7">
@@ -600,24 +597,25 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021년 연말 영화 결산을 한번 해보자.jpg</t>
+          <t>마마무 문별 PRE-RELEASE SINGLE #2 '머리에서 발끝까지 (feat. 서리)' Live Clip
+2</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2021.12.30 17:29</t>
+          <t>2021.12.30 18:03</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>172</t>
+          <t>37</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F7" t="n">
-        <v>2092869</v>
+        <v>2092907</v>
       </c>
     </row>
     <row r="8">
@@ -626,25 +624,25 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>백업 포수까지 확보, LG의 알찬 스토브리그
- 1</t>
+          <t>임영웅, 단독쇼 비하인드 영상 예고..흑백 뚫고 나오는 멋짐
+ 2</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2021.12.30 17:28</t>
+          <t>2021.12.30 18:03</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>64</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8" t="n">
-        <v>2092868</v>
+        <v>2092906</v>
       </c>
     </row>
     <row r="9">
@@ -653,25 +651,24 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>캐시워크 쥬비스
-10</t>
+          <t>SF9 'Savior' Official Music Video PREVIEW</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2021.12.30 17:27</t>
+          <t>2021.12.30 18:03</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>174</t>
+          <t>39</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>2092867</v>
+        <v>2092905</v>
       </c>
     </row>
     <row r="10">
@@ -680,25 +677,25 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>[KBO] 역대급이라는 올해 스토브리그 프차 이적
- 7</t>
+          <t>⭐️2021 더쿠 영화방 어워드 투표 시작(~1/5)⭐️ 지금 바로 투표ㄱㄱ🔥❤️
+2</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2021.12.30 17:26</t>
+          <t>2021.12.30 18:03</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>587</t>
+          <t>112</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F10" t="n">
-        <v>2092866</v>
+        <v>2092904</v>
       </c>
     </row>
     <row r="11">
@@ -707,25 +704,25 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>학생들의 교재 불법 다운로드에 분노한 교수님.jpg
- 44</t>
+          <t>'에르메스 백' 사려고…담요·그릇 1억어치 '사재기 열풍'
+ 3</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2021.12.30 17:24</t>
+          <t>2021.12.30 18:02</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>3212</t>
+          <t>407</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="F11" t="n">
-        <v>2092865</v>
+        <v>2092903</v>
       </c>
     </row>
     <row r="12">
@@ -734,25 +731,25 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>요즘다시 알고리즘뜨는 영상&lt;1987년 이한열에게&gt;
-1</t>
+          <t>호흡 곤란 호소하다 숨진 재소자, 신체 곳곳 남은 '흔적'
+2</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2021.12.30 17:23</t>
+          <t>2021.12.30 18:02</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>288</t>
+          <t>340</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12" t="n">
-        <v>2092864</v>
+        <v>2092902</v>
       </c>
     </row>
     <row r="13">
@@ -761,25 +758,25 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>파충류 유투버한테 기증 겸 유기하는 사람들이 파충류를 대하는 방식
-8</t>
+          <t>&lt;솔로지옥&gt; 출연자들의 인스타 사진
+ 12</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2021.12.30 17:23</t>
+          <t>2021.12.30 18:01</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>894</t>
+          <t>791</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F13" t="n">
-        <v>2092863</v>
+        <v>2092901</v>
       </c>
     </row>
     <row r="14">
@@ -788,25 +785,25 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>강혜원 소속사 에잇디 고소진행상황
- 10</t>
+          <t>'제2의 오겜' 잡아라…K콘텐츠 놓고 세계 스트리밍업계 쟁탈전
+ 1</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2021.12.30 17:22</t>
+          <t>2021.12.30 18:01</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>1152</t>
+          <t>172</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>2092862</v>
+        <v>2092900</v>
       </c>
     </row>
     <row r="15">
@@ -815,25 +812,25 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>방탄 진 트위터 업뎃(뷔 생일 축하)
- 12</t>
+          <t>반헌법적 드라마를 방영하는 JTBC 폐국을 청원합니다
+ 11</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2021.12.30 17:21</t>
+          <t>2021.12.30 18:01</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1069</t>
+          <t>279</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F15" t="n">
-        <v>2092861</v>
+        <v>2092899</v>
       </c>
     </row>
     <row r="16">
@@ -842,25 +839,24 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>혓바닥 좀 그만 내밀어라 진짜 꼴보기싫다 (feat. 과천꿀수박)
- 31</t>
+          <t>[꽃달] 1-4회 하이라이트 우당탕탕 금주령으로 엮인 악연(?)들!.ytb</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2021.12.30 17:20</t>
+          <t>2021.12.30 18:01</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2862</t>
+          <t>43</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>2092860</v>
+        <v>2092898</v>
       </c>
     </row>
     <row r="17">
@@ -869,25 +865,25 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Jtbc 설강화에 대한 입장 한줄요약
- 130</t>
+          <t>미국 지역별 스파이더맨 선호도
+ 25</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2021.12.30 17:20</t>
+          <t>2021.12.30 18:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>3801</t>
+          <t>487</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>130</v>
+        <v>25</v>
       </c>
       <c r="F17" t="n">
-        <v>2092859</v>
+        <v>2092897</v>
       </c>
     </row>
     <row r="18">
@@ -896,25 +892,24 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>스타벅스 신메뉴 (뉴이어시트러스티)
-8</t>
+          <t>2021년 증시·환율 추이</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2021.12.30 17:18</t>
+          <t>2021.12.30 18:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2367</t>
+          <t>148</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>2092858</v>
+        <v>2092896</v>
       </c>
     </row>
     <row r="19">
@@ -923,25 +918,25 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>인터파크 또 해킹당한 듯
- 58</t>
+          <t>강다니엘X채수빈 '너와 나의 경찰수업' 청량 케미 넘치는 2차 포스터 공개
+ 6</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2021.12.30 17:16</t>
+          <t>2021.12.30 18:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>3878</t>
+          <t>257</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>58</v>
+        <v>6</v>
       </c>
       <c r="F19" t="n">
-        <v>2092857</v>
+        <v>2092895</v>
       </c>
     </row>
     <row r="20">
@@ -950,25 +945,25 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>안소니 홉킨스 지금보다 젊었을 때
- 2</t>
+          <t>'고요의 바다' 배두나 "넷플릭스 순위 제도, 처음엔 부담도" [인터뷰 스포일러]
+1</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2021.12.30 17:16</t>
+          <t>2021.12.30 17:59</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>925</t>
+          <t>179</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>2092856</v>
+        <v>2092894</v>
       </c>
     </row>
     <row r="21">
@@ -977,25 +972,25 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>JTBC, 설강화 여주는 운동권 학생이 아님
- 70</t>
+          <t>우리가 진짜로 기억해야 하는 분들
+ 2</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2021.12.30 17:13</t>
+          <t>2021.12.30 17:58</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>4247</t>
+          <t>400</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>70</v>
+        <v>2</v>
       </c>
       <c r="F21" t="n">
-        <v>2092855</v>
+        <v>2092893</v>
       </c>
     </row>
     <row r="22">
@@ -1004,25 +999,25 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>우리가 지금 민주주의를 누릴 수 있는 이유
- 26</t>
+          <t>몬스타엑스 'The Dreaming' 빌보드 200 2주 차트인[공식]
+ 3</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2021.12.30 17:13</t>
+          <t>2021.12.30 17:56</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>1101</t>
+          <t>118</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="F22" t="n">
-        <v>2092854</v>
+        <v>2092892</v>
       </c>
     </row>
     <row r="23">
@@ -1031,25 +1026,25 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>[아는형님] 형.친.소 '아는 여고' 여섯 퀸카들이 형님 학교에 전학을 왔습니다!
-2</t>
+          <t>설강화 사태로 체험하는 시기
+ 30</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2021.12.30 17:12</t>
+          <t>2021.12.30 17:55</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>929</t>
+          <t>1735</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="F23" t="n">
-        <v>2092853</v>
+        <v>2092891</v>
       </c>
     </row>
     <row r="24">
@@ -1058,25 +1053,25 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>드라마, 예능 시상식 왜 안만들까 싶은 방송사
- 30</t>
+          <t>웹소설 독자들중에 은근 많은 부류.jpg
+ 34</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>2021.12.30 17:11</t>
+          <t>2021.12.30 17:54</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2661</t>
+          <t>1420</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F24" t="n">
-        <v>2092852</v>
+        <v>2092890</v>
       </c>
     </row>
     <row r="25">
@@ -1085,25 +1080,25 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>[전문] ‘설강화’의 경고 “비방·날조→강경 대응”
- 97</t>
+          <t>부산 대형마트 5층 주차장서 택시 추락...1명 사망·7명 부상
+3</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>2021.12.30 17:11</t>
+          <t>2021.12.30 17:54</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2099</t>
+          <t>672</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>97</v>
+        <v>3</v>
       </c>
       <c r="F25" t="n">
-        <v>2092851</v>
+        <v>2092889</v>
       </c>
     </row>
     <row r="26">
@@ -1112,25 +1107,564 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>네이버페이 180
-81</t>
+          <t>자신의 1월 1일 선곡은?
+ 37</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>2021.12.30 17:09</t>
+          <t>2021.12.30 17:54</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2473</t>
+          <t>323</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>81</v>
+        <v>37</v>
       </c>
       <c r="F26" t="n">
-        <v>2092850</v>
+        <v>2092888</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>나올때마다 존예 비주얼로 온에어 술렁이게 만든 연말 시상식 노제 모음.jpgif
+ 15</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:52</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>794</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>15</v>
+      </c>
+      <c r="F27" t="n">
+        <v>2092887</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>(ㅃㅃㅍ)고든램지 버거 후기
+ 52</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:52</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2742</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>52</v>
+      </c>
+      <c r="F28" t="n">
+        <v>2092886</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>JTBC 사실상 최후통첩→커뮤니티 ‘설강화’로 불타올라🔥
+61</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:52</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1775</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>61</v>
+      </c>
+      <c r="F29" t="n">
+        <v>2092885</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>종이 신문 열독률
+ 4</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:51</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>411</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>4</v>
+      </c>
+      <c r="F30" t="n">
+        <v>2092884</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>신속통합기획 재건축 단지 진행 중 7곳
+ 4</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:51</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>387</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>4</v>
+      </c>
+      <c r="F31" t="n">
+        <v>2092883</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>오늘도 진행 중인 설강화 트럭시위.jpg
+60</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:49</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1770</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>60</v>
+      </c>
+      <c r="F32" t="n">
+        <v>2092882</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>설강화 이슈에 대처하는 덬들.jyp (무도가 또)
+ 34</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:49</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2239</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>34</v>
+      </c>
+      <c r="F33" t="n">
+        <v>2092881</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>부산 도심서 마트 5층 벽 뚫고 택시 추락…13대 파손·8명 부상(종합)
+ 10</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:47</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>934</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>10</v>
+      </c>
+      <c r="F34" t="n">
+        <v>2092880</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>한중일 하이틴 영화 주인공 재질의 여돌 멤버들
+ 6</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:47</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>778</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>6</v>
+      </c>
+      <c r="F35" t="n">
+        <v>2092879</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>'설강화', 욕 먹어도 고집 이유 있네… 디즈니+ 2위까지 등극
+ 50</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:46</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1206</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>50</v>
+      </c>
+      <c r="F36" t="n">
+        <v>2092878</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>日 야심찬 포부…"2030년까지 일본인 달에 착륙시킬 것"
+ 11</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:46</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>349</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>11</v>
+      </c>
+      <c r="F37" t="n">
+        <v>2092877</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>고3도 국회의원·지자체장 될 수 있다…"출마 연령 만 25→18세"(종합)
+ 16</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:44</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>547</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>16</v>
+      </c>
+      <c r="F38" t="n">
+        <v>2092876</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>뇌절의 뇌절을 거듭하는 중인 장삐쭈의 새로운 애니메이션 시리즈</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:44</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>349</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="n">
+        <v>2092875</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>haha ha 인스타 업데이트
+ 15</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:43</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1825</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>15</v>
+      </c>
+      <c r="F40" t="n">
+        <v>2092874</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>있지 류진 인스타 업뎃
+ 12</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:43</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>639</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>12</v>
+      </c>
+      <c r="F41" t="n">
+        <v>2092873</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>전국 대설특보가 내려진 가운데.jpg
+ 46</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:42</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>4068</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>46</v>
+      </c>
+      <c r="F42" t="n">
+        <v>2092872</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>손님 명품옷에 음식 엎은 알바 “무릎꿇고 800만원 물어줬는데…”
+ 54</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:42</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>3956</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>54</v>
+      </c>
+      <c r="F43" t="n">
+        <v>2092871</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>길고양이들은 봄이 오면.jpg
+ 14</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:40</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1374</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>14</v>
+      </c>
+      <c r="F44" t="n">
+        <v>2092870</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>사진으로 보는 5•18 광주 민주화 운동
+ 9</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:40</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>635</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>9</v>
+      </c>
+      <c r="F45" t="n">
+        <v>2092869</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>출생신고 안 돼 유령처럼 산 24·22·15살 세 자매 발견
+297</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:37</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.9만</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>297</v>
+      </c>
+      <c r="F46" t="n">
+        <v>2092868</v>
       </c>
     </row>
   </sheetData>
